--- a/bin/config/xlsx/Class.xlsx
+++ b/bin/config/xlsx/Class.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23960" windowHeight="11390"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="2" r:id="rId1"/>
@@ -727,7 +727,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -980,10 +980,10 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1035,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4">

--- a/bin/config/xlsx/Class.xlsx
+++ b/bin/config/xlsx/Class.xlsx
@@ -980,7 +980,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
